--- a/tools/excel/finma/finma_framework_final_FR.xlsx
+++ b/tools/excel/finma/finma_framework_final_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F770B87-EE03-4C8B-AA3F-71282DCBF712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6F2AD-F066-4C1D-A731-25299689B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1209,8 +1209,8 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,6 +1565,9 @@
       <c r="A31" t="s">
         <v>48</v>
       </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
       <c r="C31" t="s">
         <v>57</v>
       </c>

--- a/tools/excel/finma/finma_framework_final_FR.xlsx
+++ b/tools/excel/finma/finma_framework_final_FR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A6F2AD-F066-4C1D-A731-25299689B29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C39A1-4597-4036-AC3C-80C0FF5AF888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="278">
   <si>
     <t>assessable</t>
   </si>
@@ -1209,8 +1209,8 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,9 +1955,6 @@
       <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
-        <v>98</v>
-      </c>
       <c r="D58" t="s">
         <v>254</v>
       </c>

--- a/tools/excel/finma/finma_framework_final_FR.xlsx
+++ b/tools/excel/finma/finma_framework_final_FR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C39A1-4597-4036-AC3C-80C0FF5AF888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ADBFDC-1769-4133-95D5-E66C64A2D549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finma_framework" sheetId="1" r:id="rId1"/>
